--- a/BackTest/2020-01-21 BackTest EOS.xlsx
+++ b/BackTest/2020-01-21 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2827,7 +2827,7 @@
         <v>28790.42440598001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -5962,17 +5962,11 @@
         <v>18962.82032433002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6001,17 +5995,11 @@
         <v>17624.28832433002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6040,17 +6028,11 @@
         <v>19847.08262433002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6120,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6157,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6194,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6264,17 +6226,11 @@
         <v>-63576.88877566998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6259,7 @@
         <v>-58788.09867566998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3963</v>
@@ -6311,7 +6267,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6342,7 +6298,7 @@
         <v>-56533.40827566998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3981</v>
@@ -6381,9 +6337,11 @@
         <v>-48308.68665525998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3988</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6418,9 +6376,11 @@
         <v>-49584.81455525998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>4000</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6455,9 +6415,11 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3997</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6492,9 +6454,11 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4001</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6529,7 +6493,7 @@
         <v>-48820.33625525998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>4001</v>
@@ -6568,7 +6532,7 @@
         <v>-50101.83185525998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>4018</v>
@@ -6607,11 +6571,9 @@
         <v>-51515.74475525998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>4011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6646,7 +6608,7 @@
         <v>-55274.95455525998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>4008</v>
@@ -6685,7 +6647,7 @@
         <v>-56092.93115525998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>4000</v>
@@ -6724,7 +6686,7 @@
         <v>-56028.89215525999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3998</v>
@@ -6763,11 +6725,9 @@
         <v>-45211.18190550998</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>4000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6802,11 +6762,9 @@
         <v>-45209.75190550998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>4004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -6841,11 +6799,9 @@
         <v>-44853.90050550998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>4010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6880,11 +6836,9 @@
         <v>-38095.67570550999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>4015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -6919,11 +6873,9 @@
         <v>-37286.60920550999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7365,11 +7317,9 @@
         <v>-47712.82600550998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7441,11 +7391,9 @@
         <v>-46836.04240550998</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7850,11 +7798,9 @@
         <v>-45542.63766225998</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8296,11 +8242,9 @@
         <v>-51915.31844061999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8335,11 +8279,9 @@
         <v>-52662.71844061999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8374,11 +8316,9 @@
         <v>-52144.71844061999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8413,11 +8353,9 @@
         <v>-52376.91844061999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8452,11 +8390,9 @@
         <v>-54662.91844061999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8491,11 +8427,9 @@
         <v>-52938.07023108999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>4019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8604,11 +8538,9 @@
         <v>-56785.38993108999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>4000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8643,11 +8575,9 @@
         <v>-59723.65073108999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>4003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8682,11 +8612,9 @@
         <v>-63703.96313108999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>4001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8721,7 +8649,7 @@
         <v>-62803.96313108999</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8758,11 +8686,9 @@
         <v>-59819.85063108999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>4004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8797,11 +8723,9 @@
         <v>-62099.01753108999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8836,11 +8760,9 @@
         <v>-59527.06773108999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>4001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9171,11 +9093,9 @@
         <v>-59619.77853108999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9210,11 +9130,9 @@
         <v>-73264.19533108998</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9249,11 +9167,9 @@
         <v>-71673.02443108999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9288,11 +9204,9 @@
         <v>-71773.02443108999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9327,11 +9241,9 @@
         <v>-69964.02813108999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>4006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9403,11 +9315,9 @@
         <v>-64893.18583108999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>4008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9442,11 +9352,9 @@
         <v>-56606.58553108999</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>4032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9666,11 +9574,9 @@
         <v>-58934.73294384999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9705,11 +9611,9 @@
         <v>-58934.73294384999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>4035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9744,11 +9648,9 @@
         <v>-59186.29304384999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9783,11 +9685,9 @@
         <v>-48286.31614384999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>4034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9822,11 +9722,9 @@
         <v>-38938.93144384999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>4047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9861,11 +9759,9 @@
         <v>-37014.55554384999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>4056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -9900,11 +9796,9 @@
         <v>-32008.01374384999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>4058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10346,11 +10240,9 @@
         <v>-30572.00106104999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>4070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10385,11 +10277,9 @@
         <v>-28398.06506104999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>4065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -11016,11 +10906,9 @@
         <v>-49205.12263097999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>4081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11055,11 +10943,9 @@
         <v>-49437.95813097999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>4081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -22046,18 +21932,16 @@
         <v>1652964.05504846</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="inlineStr"/>
     </row>
     <row r="602">
@@ -22083,15 +21967,11 @@
         <v>1652562.07044846</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22120,15 +22000,11 @@
         <v>1651638.72884846</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22157,15 +22033,11 @@
         <v>1647718.28184212</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22194,15 +22066,11 @@
         <v>1647718.28184212</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22231,15 +22099,11 @@
         <v>1649713.94014212</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22268,15 +22132,11 @@
         <v>1644848.66594212</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22305,15 +22165,11 @@
         <v>1647733.39664212</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22342,15 +22198,11 @@
         <v>1649453.55954212</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22379,15 +22231,11 @@
         <v>1649640.31894212</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22416,15 +22264,11 @@
         <v>1652974.99914212</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22453,15 +22297,11 @@
         <v>1652938.11914212</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22490,15 +22330,11 @@
         <v>1652938.11914212</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22527,15 +22363,11 @@
         <v>1652808.98284212</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22564,15 +22396,11 @@
         <v>1654310.17584212</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22601,15 +22429,11 @@
         <v>1654118.17834212</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22638,15 +22462,11 @@
         <v>1654118.17834212</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22675,15 +22495,11 @@
         <v>1654118.17834212</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22712,15 +22528,11 @@
         <v>1654224.98544212</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22753,11 +22565,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22790,11 +22598,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22827,11 +22631,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22864,11 +22664,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22901,11 +22697,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22934,15 +22726,11 @@
         <v>1657247.85177148</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22971,15 +22759,11 @@
         <v>1657247.85177148</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23008,15 +22792,11 @@
         <v>1657247.85177148</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23045,15 +22825,11 @@
         <v>1657247.85177148</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23082,15 +22858,11 @@
         <v>1657247.85177148</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23119,15 +22891,11 @@
         <v>1656943.83227148</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23156,15 +22924,11 @@
         <v>1655080.92147148</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23193,16 +22957,14 @@
         <v>1655080.92147148</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
       <c r="M632" t="inlineStr"/>
     </row>
     <row r="633">
@@ -23228,7 +22990,7 @@
         <v>1654514.75357148</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23261,7 +23023,7 @@
         <v>1655884.41227148</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23294,7 +23056,7 @@
         <v>1655910.29297148</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23327,7 +23089,7 @@
         <v>1658149.31957148</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23360,7 +23122,7 @@
         <v>1658575.64987148</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23393,7 +23155,7 @@
         <v>1658575.64987148</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23426,7 +23188,7 @@
         <v>1660569.74436055</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23459,7 +23221,7 @@
         <v>1659350.16666055</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23492,7 +23254,7 @@
         <v>1655184.73546055</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23525,7 +23287,7 @@
         <v>1655527.10426055</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23558,7 +23320,7 @@
         <v>1655528.30421184</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23591,7 +23353,7 @@
         <v>1654816.15671184</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23624,7 +23386,7 @@
         <v>1654781.09011184</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23657,7 +23419,7 @@
         <v>1654589.09011184</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23690,7 +23452,7 @@
         <v>1654747.09191184</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23723,7 +23485,7 @@
         <v>1654833.05831184</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23756,7 +23518,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23789,7 +23551,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23822,7 +23584,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23855,7 +23617,7 @@
         <v>1654706.52551184</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23888,7 +23650,7 @@
         <v>1653200.49191184</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23921,7 +23683,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23954,7 +23716,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23987,7 +23749,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24020,7 +23782,7 @@
         <v>1649939.13251184</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24053,7 +23815,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24086,7 +23848,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24119,7 +23881,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24152,7 +23914,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24185,7 +23947,7 @@
         <v>1648004.70091184</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24218,7 +23980,7 @@
         <v>1639257.05991184</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24251,7 +24013,7 @@
         <v>1638861.11581184</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24284,7 +24046,7 @@
         <v>1638861.11581184</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24317,7 +24079,7 @@
         <v>1638985.70241184</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24350,7 +24112,7 @@
         <v>1638670.64581184</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24383,7 +24145,7 @@
         <v>1639510.15441184</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24416,7 +24178,7 @@
         <v>1640720.40831184</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24713,7 +24475,7 @@
         <v>1640004.17261184</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24746,7 +24508,7 @@
         <v>1640304.17261184</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24779,7 +24541,7 @@
         <v>1639435.33601184</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24845,7 +24607,7 @@
         <v>1639473.79520426</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24878,7 +24640,7 @@
         <v>1640343.82660426</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24911,7 +24673,7 @@
         <v>1639348.40260426</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24944,7 +24706,7 @@
         <v>1638847.90260426</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24977,7 +24739,7 @@
         <v>1638864.58050426</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25010,7 +24772,7 @@
         <v>1639383.41870426</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25043,7 +24805,7 @@
         <v>1639381.22000426</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25076,7 +24838,7 @@
         <v>1639387.66810426</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25109,7 +24871,7 @@
         <v>1639895.85920426</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25142,7 +24904,7 @@
         <v>1639895.85920426</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25175,7 +24937,7 @@
         <v>1638596.50310426</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25208,7 +24970,7 @@
         <v>1640558.10040426</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25241,7 +25003,7 @@
         <v>1640606.98150426</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25274,7 +25036,7 @@
         <v>1639392.56430426</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25307,7 +25069,7 @@
         <v>1642545.79540426</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25340,7 +25102,7 @@
         <v>1644848.30670426</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25373,7 +25135,7 @@
         <v>1644145.95910426</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25406,7 +25168,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25439,7 +25201,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25472,7 +25234,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25505,7 +25267,7 @@
         <v>1644518.90421874</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25538,7 +25300,7 @@
         <v>1643937.28851874</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25571,7 +25333,7 @@
         <v>1644869.81291874</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25604,7 +25366,7 @@
         <v>1645053.21711874</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25637,7 +25399,7 @@
         <v>1648494.97141874</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25670,7 +25432,7 @@
         <v>1648130.57273575</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25703,7 +25465,7 @@
         <v>1647584.78633575</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25736,7 +25498,7 @@
         <v>1649818.56183575</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25769,7 +25531,7 @@
         <v>1654420.61607878</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25802,7 +25564,7 @@
         <v>1652821.65187878</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25835,7 +25597,7 @@
         <v>1655381.80617878</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25868,7 +25630,7 @@
         <v>1653467.40787878</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25901,7 +25663,7 @@
         <v>1654252.227278779</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25934,7 +25696,7 @@
         <v>1654036.563078779</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25967,7 +25729,7 @@
         <v>1654110.13867878</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26000,7 +25762,7 @@
         <v>1650681.70267878</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26033,7 +25795,7 @@
         <v>1650523.73507878</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26066,7 +25828,7 @@
         <v>1650523.73507878</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26099,7 +25861,7 @@
         <v>1650523.73507878</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26132,7 +25894,7 @@
         <v>1650523.73507878</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26165,7 +25927,7 @@
         <v>1650523.73507878</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26198,7 +25960,7 @@
         <v>1650523.73507878</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26231,7 +25993,7 @@
         <v>1652849.44707878</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26264,7 +26026,7 @@
         <v>1652790.79487878</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26297,7 +26059,7 @@
         <v>1653132.99987878</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26330,7 +26092,7 @@
         <v>1653132.99987878</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26363,7 +26125,7 @@
         <v>1652178.40917878</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26396,7 +26158,7 @@
         <v>1652028.40917878</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26429,7 +26191,7 @@
         <v>1652054.17287878</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26462,7 +26224,7 @@
         <v>1652018.06557878</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26495,7 +26257,7 @@
         <v>1651339.07557878</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26528,7 +26290,7 @@
         <v>1650041.62757878</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26561,7 +26323,7 @@
         <v>1650042.62757878</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26594,7 +26356,7 @@
         <v>1653609.25994623</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26627,7 +26389,7 @@
         <v>1653604.59284623</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26660,7 +26422,7 @@
         <v>1654071.95954623</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26693,7 +26455,7 @@
         <v>1650739.20144623</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26726,7 +26488,7 @@
         <v>1650768.27074623</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26759,7 +26521,7 @@
         <v>1651619.87634623</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26792,7 +26554,7 @@
         <v>1650081.26724623</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26825,7 +26587,7 @@
         <v>1650053.94394623</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26858,7 +26620,7 @@
         <v>1650704.04454623</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26891,7 +26653,7 @@
         <v>1651496.70783221</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26924,7 +26686,7 @@
         <v>1651053.344932209</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26957,7 +26719,7 @@
         <v>1651056.074932209</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26990,7 +26752,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27023,7 +26785,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27056,7 +26818,7 @@
         <v>1651040.265232209</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27089,7 +26851,7 @@
         <v>1648945.392332209</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27122,7 +26884,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27155,7 +26917,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27188,7 +26950,7 @@
         <v>1648943.399832209</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27221,7 +26983,7 @@
         <v>1650680.403732209</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27254,7 +27016,7 @@
         <v>1653796.193632209</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27287,7 +27049,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27320,7 +27082,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27353,7 +27115,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27386,7 +27148,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27419,7 +27181,7 @@
         <v>1651637.369832209</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27452,7 +27214,7 @@
         <v>1654868.191232209</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27485,7 +27247,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27518,7 +27280,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27551,7 +27313,7 @@
         <v>1654288.057332209</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27584,7 +27346,7 @@
         <v>1654302.913917909</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27617,7 +27379,7 @@
         <v>1655033.266774749</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27650,7 +27412,7 @@
         <v>1654697.825874749</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27683,7 +27445,7 @@
         <v>1649307.840074749</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27716,7 +27478,7 @@
         <v>1647844.841574749</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27749,7 +27511,7 @@
         <v>1648508.544174749</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27782,7 +27544,7 @@
         <v>1647997.845974749</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27815,7 +27577,7 @@
         <v>1647685.414674749</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27848,7 +27610,7 @@
         <v>1649941.916574749</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27881,7 +27643,7 @@
         <v>1642823.895774749</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27914,7 +27676,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27947,7 +27709,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27980,7 +27742,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28013,7 +27775,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28046,7 +27808,7 @@
         <v>1639528.49688833</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28079,7 +27841,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28112,7 +27874,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28145,7 +27907,7 @@
         <v>1650172.41448833</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28178,7 +27940,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28211,7 +27973,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28244,7 +28006,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28277,7 +28039,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28310,7 +28072,7 @@
         <v>1648451.88338833</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28343,7 +28105,7 @@
         <v>1646451.88338833</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28376,7 +28138,7 @@
         <v>1646159.19368833</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28409,7 +28171,7 @@
         <v>1647022.702088329</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28442,7 +28204,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28475,7 +28237,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28508,7 +28270,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28541,7 +28303,7 @@
         <v>1645453.165788329</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28574,7 +28336,7 @@
         <v>1645443.165788329</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28607,7 +28369,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28640,7 +28402,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28673,7 +28435,7 @@
         <v>1648380.74838833</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28706,7 +28468,7 @@
         <v>1649562.35428833</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28739,7 +28501,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28772,7 +28534,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28805,7 +28567,7 @@
         <v>1649767.36868833</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28838,7 +28600,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28871,7 +28633,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28904,7 +28666,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28937,7 +28699,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28970,7 +28732,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29003,7 +28765,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29036,7 +28798,7 @@
         <v>1646020.653788329</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29069,7 +28831,7 @@
         <v>1643885.530688329</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29102,7 +28864,7 @@
         <v>1643685.530688329</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29135,7 +28897,7 @@
         <v>1644373.249388329</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29168,7 +28930,7 @@
         <v>1641886.249388329</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29201,7 +28963,7 @@
         <v>1643772.666888329</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29234,7 +28996,7 @@
         <v>1643231.667688329</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29267,7 +29029,7 @@
         <v>1643225.057388329</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29300,7 +29062,7 @@
         <v>1640563.065488329</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29333,7 +29095,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29366,7 +29128,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29399,7 +29161,7 @@
         <v>1650185.600588329</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29432,7 +29194,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29465,7 +29227,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29498,7 +29260,7 @@
         <v>1648233.822588329</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29531,7 +29293,7 @@
         <v>1648846.231088329</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29564,7 +29326,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29597,7 +29359,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29630,7 +29392,7 @@
         <v>1650928.194688329</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29663,7 +29425,7 @@
         <v>1655687.353088329</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29696,7 +29458,7 @@
         <v>1655916.253088329</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29729,7 +29491,7 @@
         <v>1655468.900888329</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29762,7 +29524,7 @@
         <v>1652992.633788329</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29795,7 +29557,7 @@
         <v>1652982.003088329</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29828,7 +29590,7 @@
         <v>1651934.375088329</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29861,7 +29623,7 @@
         <v>1652134.375088329</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29894,7 +29656,7 @@
         <v>1651207.570988329</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29960,7 +29722,7 @@
         <v>1649959.247288329</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29993,7 +29755,7 @@
         <v>1650014.401588329</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30026,7 +29788,7 @@
         <v>1648273.991488329</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30059,7 +29821,7 @@
         <v>1648273.991488329</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30092,7 +29854,7 @@
         <v>1647003.434688329</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30125,7 +29887,7 @@
         <v>1643978.273688289</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30158,7 +29920,7 @@
         <v>1642510.615188289</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30191,7 +29953,7 @@
         <v>1642699.385888289</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30224,7 +29986,7 @@
         <v>1640356.82058829</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30257,7 +30019,7 @@
         <v>1641920.03288829</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30290,7 +30052,7 @@
         <v>1641725.03288829</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30323,7 +30085,7 @@
         <v>1639738.69928829</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30356,7 +30118,7 @@
         <v>1636251.27848829</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30389,7 +30151,7 @@
         <v>1640935.15158829</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30422,7 +30184,7 @@
         <v>1639820.25158829</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30455,7 +30217,7 @@
         <v>1648693.43928829</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30488,7 +30250,7 @@
         <v>1645248.22488829</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30521,7 +30283,7 @@
         <v>1646132.84388829</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30554,7 +30316,7 @@
         <v>1646132.84388829</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30587,7 +30349,7 @@
         <v>1646132.84388829</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30620,7 +30382,7 @@
         <v>1646105.294188289</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30653,7 +30415,7 @@
         <v>1646105.294188289</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30686,7 +30448,7 @@
         <v>1644321.400788289</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30719,7 +30481,7 @@
         <v>1639745.547488289</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30752,7 +30514,7 @@
         <v>1641006.821088289</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30785,7 +30547,7 @@
         <v>1635478.549788289</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30818,7 +30580,7 @@
         <v>1635478.549788289</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30851,7 +30613,7 @@
         <v>1636698.05618829</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30884,7 +30646,7 @@
         <v>1636673.407388289</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30917,7 +30679,7 @@
         <v>1636673.407388289</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30950,7 +30712,7 @@
         <v>1636969.819388289</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30983,7 +30745,7 @@
         <v>1623979.049088289</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31016,7 +30778,7 @@
         <v>1621362.156988289</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31049,7 +30811,7 @@
         <v>1622506.222788289</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31082,7 +30844,7 @@
         <v>1622506.222788289</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31115,7 +30877,7 @@
         <v>1622506.222788289</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31148,7 +30910,7 @@
         <v>1628000.566088289</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31181,7 +30943,7 @@
         <v>1630181.868588289</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31214,7 +30976,7 @@
         <v>1630916.170188289</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31247,7 +31009,7 @@
         <v>1630906.170188289</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31280,7 +31042,7 @@
         <v>1631052.764488289</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31313,7 +31075,7 @@
         <v>1631052.764488289</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31346,7 +31108,7 @@
         <v>1631052.764488289</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31379,7 +31141,7 @@
         <v>1631261.194988289</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31412,7 +31174,7 @@
         <v>1631261.194988289</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31445,7 +31207,7 @@
         <v>1631261.194988289</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31478,7 +31240,7 @@
         <v>1630429.189388289</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31511,7 +31273,7 @@
         <v>1634931.770688289</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31577,7 +31339,7 @@
         <v>1634006.244188289</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31610,7 +31372,7 @@
         <v>1632220.158188289</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31643,7 +31405,7 @@
         <v>1631489.158188289</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31676,7 +31438,7 @@
         <v>1631608.028688289</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31709,7 +31471,7 @@
         <v>1632093.96958829</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31742,7 +31504,7 @@
         <v>1630742.388788289</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31775,7 +31537,7 @@
         <v>1630910.527688289</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31808,7 +31570,7 @@
         <v>1630210.027688289</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31841,7 +31603,7 @@
         <v>1630210.027688289</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31874,7 +31636,7 @@
         <v>1630210.027688289</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31907,7 +31669,7 @@
         <v>1630210.027688289</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31940,7 +31702,7 @@
         <v>1625245.049488289</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31973,7 +31735,7 @@
         <v>1625905.049488289</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32006,7 +31768,7 @@
         <v>1625905.049488289</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32039,7 +31801,7 @@
         <v>1626609.633188289</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32072,7 +31834,7 @@
         <v>1626609.633188289</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32105,7 +31867,7 @@
         <v>1621899.134388289</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32138,7 +31900,7 @@
         <v>1622126.40638829</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32171,7 +31933,7 @@
         <v>1622323.575588289</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32204,7 +31966,7 @@
         <v>1619356.083488289</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32237,7 +31999,7 @@
         <v>1619360.083488289</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32270,7 +32032,7 @@
         <v>1619345.083488289</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32303,7 +32065,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32336,7 +32098,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32369,7 +32131,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32402,7 +32164,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32435,7 +32197,7 @@
         <v>1618955.089288289</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32468,7 +32230,7 @@
         <v>1617694.089288289</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32501,7 +32263,7 @@
         <v>1617697.66448829</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32534,7 +32296,7 @@
         <v>1617697.66448829</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32567,7 +32329,7 @@
         <v>1617347.16448829</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32831,7 +32593,7 @@
         <v>1620263.40984406</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32864,7 +32626,7 @@
         <v>1619930.64814406</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32897,7 +32659,7 @@
         <v>1619930.64814406</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32930,7 +32692,7 @@
         <v>1623108.07714406</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32963,7 +32725,7 @@
         <v>1623066.69934406</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32996,7 +32758,7 @@
         <v>1623066.69934406</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33029,7 +32791,7 @@
         <v>1623149.87097396</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33062,7 +32824,7 @@
         <v>1623149.87097396</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33095,7 +32857,7 @@
         <v>1622526.22117396</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33128,7 +32890,7 @@
         <v>1620803.55527396</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33161,7 +32923,7 @@
         <v>1619106.51917396</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33194,7 +32956,7 @@
         <v>1619095.62327396</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33227,7 +32989,7 @@
         <v>1616454.24297396</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33260,7 +33022,7 @@
         <v>1616441.93317396</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33293,7 +33055,7 @@
         <v>1616470.62107396</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33326,7 +33088,7 @@
         <v>1616372.73087396</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33359,7 +33121,7 @@
         <v>1615372.73087396</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33392,7 +33154,7 @@
         <v>1614272.23087396</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33425,7 +33187,7 @@
         <v>1614341.63867396</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33458,7 +33220,7 @@
         <v>1614514.66877396</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33491,7 +33253,7 @@
         <v>1614488.41637396</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33524,7 +33286,7 @@
         <v>1614488.41637396</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33557,7 +33319,7 @@
         <v>1612082.25637396</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33590,7 +33352,7 @@
         <v>1611647.25637396</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33623,7 +33385,7 @@
         <v>1612208.25847396</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33656,7 +33418,7 @@
         <v>1615291.25847396</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33689,7 +33451,7 @@
         <v>1615291.25847396</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33722,7 +33484,7 @@
         <v>1615291.25847396</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33755,7 +33517,7 @@
         <v>1615371.85867396</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33788,7 +33550,7 @@
         <v>1614580.92896844</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33821,7 +33583,7 @@
         <v>1614626.69911157</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33854,7 +33616,7 @@
         <v>1611520.53241157</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33887,7 +33649,7 @@
         <v>1612471.31811157</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33920,7 +33682,7 @@
         <v>1612471.31811157</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33953,7 +33715,7 @@
         <v>1612491.31811157</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33986,7 +33748,7 @@
         <v>1612403.00091157</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34019,7 +33781,7 @@
         <v>1612153.00091157</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34052,7 +33814,7 @@
         <v>1611907.82471157</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34085,7 +33847,7 @@
         <v>1611572.62471157</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34118,7 +33880,7 @@
         <v>1611830.41321157</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34151,7 +33913,7 @@
         <v>1612189.60101157</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34184,7 +33946,7 @@
         <v>1611904.60981157</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34217,7 +33979,7 @@
         <v>1611606.20351157</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34250,7 +34012,7 @@
         <v>1614250.14321157</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34283,7 +34045,7 @@
         <v>1614592.25678565</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34316,7 +34078,7 @@
         <v>1614592.25678565</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34349,7 +34111,7 @@
         <v>1614589.80668565</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34382,7 +34144,7 @@
         <v>1615704.81548565</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34415,7 +34177,7 @@
         <v>1615704.81548565</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34448,7 +34210,7 @@
         <v>1615704.81548565</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34481,7 +34243,7 @@
         <v>1615693.56978565</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34514,7 +34276,7 @@
         <v>1615691.99448565</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34547,7 +34309,7 @@
         <v>1615692.19448565</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34580,7 +34342,7 @@
         <v>1614646.29268565</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34613,7 +34375,7 @@
         <v>1614646.29268565</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34646,7 +34408,7 @@
         <v>1615771.05788565</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34679,7 +34441,7 @@
         <v>1615883.09188565</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34712,7 +34474,7 @@
         <v>1615883.09188565</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34745,7 +34507,7 @@
         <v>1617181.60859813</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34778,7 +34540,7 @@
         <v>1617682.99689813</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34811,7 +34573,7 @@
         <v>1617523.35479813</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34844,7 +34606,7 @@
         <v>1618818.61489813</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34877,7 +34639,7 @@
         <v>1618329.40769813</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34910,7 +34672,7 @@
         <v>1618329.40769813</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34943,7 +34705,7 @@
         <v>1618412.38149813</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34976,7 +34738,7 @@
         <v>1608855.27819813</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35009,7 +34771,7 @@
         <v>1608857.00919813</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35042,7 +34804,7 @@
         <v>1608857.00919813</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35075,7 +34837,7 @@
         <v>1608338.78959813</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35108,7 +34870,7 @@
         <v>1608338.78959813</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35141,7 +34903,7 @@
         <v>1606515.45099813</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35174,7 +34936,7 @@
         <v>1606011.20149813</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35207,7 +34969,7 @@
         <v>1606444.90759813</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35240,7 +35002,7 @@
         <v>1607041.99499813</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35273,7 +35035,7 @@
         <v>1607801.58619813</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35306,7 +35068,7 @@
         <v>1607687.02619813</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35339,7 +35101,7 @@
         <v>1606782.41139813</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35372,7 +35134,7 @@
         <v>1606426.86949813</v>
       </c>
       <c r="H1001" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35405,7 +35167,7 @@
         <v>1606426.86949813</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35438,7 +35200,7 @@
         <v>1605331.80509813</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35471,7 +35233,7 @@
         <v>1603738.88159813</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35504,7 +35266,7 @@
         <v>1603933.83719813</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35537,7 +35299,7 @@
         <v>1605348.50449813</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35570,7 +35332,7 @@
         <v>1605498.34895347</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35603,7 +35365,7 @@
         <v>1605001.59545347</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35636,7 +35398,7 @@
         <v>1599834.21645347</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35669,7 +35431,7 @@
         <v>1600521.12805347</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35702,7 +35464,7 @@
         <v>1600978.88275347</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35735,7 +35497,7 @@
         <v>1600654.52395347</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35768,7 +35530,7 @@
         <v>1599413.96365347</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35801,7 +35563,7 @@
         <v>1599648.96365347</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35834,7 +35596,7 @@
         <v>1599495.80175347</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35867,7 +35629,7 @@
         <v>1598987.29845347</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35900,7 +35662,7 @@
         <v>1593592.56355347</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35933,7 +35695,7 @@
         <v>1621329.11455347</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35966,7 +35728,7 @@
         <v>1620387.44065347</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35999,7 +35761,7 @@
         <v>1620730.36225347</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36032,7 +35794,7 @@
         <v>1619803.03685347</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36065,7 +35827,7 @@
         <v>1621761.28935347</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36098,7 +35860,7 @@
         <v>1630393.46565347</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36131,7 +35893,7 @@
         <v>1626600.81035347</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36164,7 +35926,7 @@
         <v>1626600.81035347</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36197,7 +35959,7 @@
         <v>1625743.04625347</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36230,7 +35992,7 @@
         <v>1628231.33335347</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36263,7 +36025,7 @@
         <v>1627390.72705347</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36296,7 +36058,7 @@
         <v>1629504.42015347</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36329,7 +36091,7 @@
         <v>1631204.560953469</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36362,7 +36124,7 @@
         <v>1631204.560953469</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36395,7 +36157,7 @@
         <v>1630930.72335347</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36428,7 +36190,7 @@
         <v>1625645.075253469</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36461,7 +36223,7 @@
         <v>1625645.075253469</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36494,7 +36256,7 @@
         <v>1625945.51365347</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36527,7 +36289,7 @@
         <v>1625286.73965347</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36560,7 +36322,7 @@
         <v>1619131.29240286</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36593,7 +36355,7 @@
         <v>1618490.92570286</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36626,7 +36388,7 @@
         <v>1616608.95490286</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36659,7 +36421,7 @@
         <v>1617995.85470286</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36692,7 +36454,7 @@
         <v>1637320.77220286</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36725,7 +36487,7 @@
         <v>1636644.32680286</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36758,7 +36520,7 @@
         <v>1635038.21370286</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36791,7 +36553,7 @@
         <v>1630046.26740286</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36824,7 +36586,7 @@
         <v>1631726.53420286</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36857,7 +36619,7 @@
         <v>1622950.98350286</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36890,7 +36652,7 @@
         <v>1632834.90450286</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36923,7 +36685,7 @@
         <v>1604901.83770286</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36956,7 +36718,7 @@
         <v>1619167.90295192</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36989,7 +36751,7 @@
         <v>1640023.23535192</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37022,7 +36784,7 @@
         <v>1640023.23535192</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37055,7 +36817,7 @@
         <v>1641473.54885192</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37088,7 +36850,7 @@
         <v>1631205.20299524</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37121,7 +36883,7 @@
         <v>1630986.73109524</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37154,7 +36916,7 @@
         <v>1631287.73109524</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37187,7 +36949,7 @@
         <v>1631019.73839524</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37220,7 +36982,7 @@
         <v>1631477.73669524</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37253,7 +37015,7 @@
         <v>1625852.30359524</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37286,7 +37048,7 @@
         <v>1625686.09359524</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37319,7 +37081,7 @@
         <v>1626173.04439524</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37352,7 +37114,7 @@
         <v>1626173.04439524</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37385,7 +37147,7 @@
         <v>1629868.69459524</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37418,7 +37180,7 @@
         <v>1636072.37299524</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37451,7 +37213,7 @@
         <v>1636046.72699524</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37484,7 +37246,7 @@
         <v>1636311.57139524</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37517,7 +37279,7 @@
         <v>1624021.67409524</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37550,7 +37312,7 @@
         <v>1624033.77199524</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37682,7 +37444,7 @@
         <v>1623938.45349524</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37715,7 +37477,7 @@
         <v>1623729.56969524</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37946,7 +37708,7 @@
         <v>1619103.49280517</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37979,7 +37741,7 @@
         <v>1624142.95790478</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38078,7 +37840,7 @@
         <v>1654948.62345167</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38210,7 +37972,7 @@
         <v>1666591.65435167</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38342,17 +38104,11 @@
         <v>1672523.96555167</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>4010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -38381,17 +38137,11 @@
         <v>1673629.03445167</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>4013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -38420,17 +38170,11 @@
         <v>1672318.38915167</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>4015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -38459,17 +38203,11 @@
         <v>1669011.70205167</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>4014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -38498,17 +38236,11 @@
         <v>1670922.45835167</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>4001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -38537,17 +38269,11 @@
         <v>1669194.38365167</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>4011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -38576,17 +38302,11 @@
         <v>1659465.10145167</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>4005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -38615,17 +38335,11 @@
         <v>1664089.46825167</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>3999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -38654,17 +38368,11 @@
         <v>1664089.46825167</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1099" t="n">
-        <v>4000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -38693,17 +38401,11 @@
         <v>1635553.70945167</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>4000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -38732,17 +38434,11 @@
         <v>1631898.35675167</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1101" t="n">
-        <v>3999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38771,17 +38467,11 @@
         <v>1633321.46605167</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1102" t="n">
-        <v>3998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38810,17 +38500,11 @@
         <v>1625705.95605167</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>4002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38849,17 +38533,11 @@
         <v>1629412.89135167</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>4000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38888,17 +38566,11 @@
         <v>1630008.89135167</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>4005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38927,17 +38599,11 @@
         <v>1632471.46955167</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>4011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38970,11 +38636,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -39007,11 +38669,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -39044,11 +38702,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -39081,11 +38735,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -39118,11 +38768,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -39155,11 +38801,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -39192,11 +38834,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -39229,11 +38867,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -39266,11 +38900,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -39303,11 +38933,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -39340,11 +38966,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -39377,11 +38999,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -39414,11 +39032,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -39451,11 +39065,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -39488,11 +39098,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -39521,15 +39127,11 @@
         <v>1649670.169453871</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -39558,15 +39160,11 @@
         <v>1648816.934353871</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -39595,15 +39193,11 @@
         <v>1646984.505562961</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -39632,15 +39226,11 @@
         <v>1648242.147462961</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -39669,15 +39259,11 @@
         <v>1646698.49716296</v>
       </c>
       <c r="H1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -39706,15 +39292,11 @@
         <v>1650563.35066296</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -39747,11 +39329,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -39780,15 +39358,11 @@
         <v>1651256.75506296</v>
       </c>
       <c r="H1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -39817,15 +39391,11 @@
         <v>1650268.69367568</v>
       </c>
       <c r="H1130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -39854,15 +39424,11 @@
         <v>1648066.74277568</v>
       </c>
       <c r="H1131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -39891,15 +39457,11 @@
         <v>1656206.64397568</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39928,15 +39490,11 @@
         <v>1656800.76057568</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39965,15 +39523,11 @@
         <v>1652579.03867568</v>
       </c>
       <c r="H1134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -40002,15 +39556,11 @@
         <v>1653062.89377568</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -40043,11 +39593,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -40080,11 +39626,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -40117,11 +39659,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -40154,11 +39692,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -40191,11 +39725,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -40224,16 +39754,14 @@
         <v>1672939.11730156</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
       <c r="M1141" t="inlineStr"/>
     </row>
     <row r="1142">
@@ -40259,7 +39787,7 @@
         <v>1672358.08550156</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -40358,7 +39886,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40391,7 +39919,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40424,7 +39952,7 @@
         <v>1669928.42330156</v>
       </c>
       <c r="H1147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40457,7 +39985,7 @@
         <v>1669738.15670156</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40886,7 +40414,7 @@
         <v>1679697.26172991</v>
       </c>
       <c r="H1161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40963,6 +40491,6 @@
       <c r="M1163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest EOS.xlsx
+++ b/BackTest/2020-01-21 BackTest EOS.xlsx
@@ -6226,10 +6226,14 @@
         <v>-63576.88877566998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3952</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3952</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6259,11 +6263,19 @@
         <v>-58788.09867566998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3963</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3952</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6304,19 @@
         <v>-56533.40827566998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3981</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3952</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,10 +6345,14 @@
         <v>-48308.68665525998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3988</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3988</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6358,11 +6382,19 @@
         <v>-49584.81455525998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6423,19 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3997</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6464,19 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6505,19 @@
         <v>-48820.33625525998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6546,19 @@
         <v>-50101.83185525998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4018</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6587,19 @@
         <v>-51515.74475525998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>4011</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6628,19 @@
         <v>-55274.95455525998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4008</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6669,19 @@
         <v>-56092.93115525998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6710,19 @@
         <v>-56028.89215525999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3998</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6751,19 @@
         <v>-45211.18190550998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,15 +6792,17 @@
         <v>-45209.75190550998</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>4004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4004</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+        <v>3988</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,17 +6831,15 @@
         <v>-44853.90050550998</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>4010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6766,13 +6870,11 @@
         <v>-38095.67570550999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>4015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6811,7 +6913,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6850,7 +6952,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6889,7 +6991,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6928,7 +7030,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -6967,7 +7069,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7006,7 +7108,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7045,7 +7147,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7084,7 +7186,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7123,7 +7225,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7162,7 +7264,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7201,7 +7303,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7240,7 +7342,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7279,7 +7381,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7318,7 +7420,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7357,7 +7459,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7396,7 +7498,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7435,7 +7537,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7474,7 +7576,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7513,7 +7615,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7552,7 +7654,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7591,7 +7693,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7630,7 +7732,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7669,7 +7771,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7708,7 +7810,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7747,7 +7849,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7786,7 +7888,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7825,7 +7927,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7864,7 +7966,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7903,7 +8005,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7942,7 +8044,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7977,19 +8079,19 @@
         <v>-51295.81746225998</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4004</v>
+        <v>3988</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>0.9982467532467533</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
@@ -8019,8 +8121,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8160,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8085,8 +8199,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8118,8 +8238,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8148,11 +8274,19 @@
         <v>-54939.91754061999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>4027</v>
+      </c>
+      <c r="J229" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8181,11 +8315,19 @@
         <v>-52473.04444061999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>4019</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +8356,19 @@
         <v>-51915.31844061999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4022</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8247,11 +8397,19 @@
         <v>-52662.71844061999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4033</v>
+      </c>
+      <c r="J232" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8438,19 @@
         <v>-52144.71844061999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4023</v>
+      </c>
+      <c r="J233" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +8479,19 @@
         <v>-52376.91844061999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4025</v>
+      </c>
+      <c r="J234" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8346,11 +8520,19 @@
         <v>-54662.91844061999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4020</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8382,8 +8564,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8415,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8445,11 +8639,19 @@
         <v>-57857.67053108999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>4011</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8478,11 +8680,19 @@
         <v>-56785.38993108999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +8721,19 @@
         <v>-59723.65073108999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>4003</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8544,11 +8762,19 @@
         <v>-63703.96313108999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J241" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8577,11 +8803,19 @@
         <v>-62803.96313108999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J242" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8610,11 +8844,19 @@
         <v>-59819.85063108999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4004</v>
+      </c>
+      <c r="J243" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8643,11 +8885,19 @@
         <v>-62099.01753108999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4015</v>
+      </c>
+      <c r="J244" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8679,8 +8929,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +8965,19 @@
         <v>-56463.17943108999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4005</v>
+      </c>
+      <c r="J246" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8745,8 +9009,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8778,8 +9048,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8811,8 +9087,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8844,8 +9126,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8877,8 +9165,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8910,8 +9204,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8943,8 +9243,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8973,11 +9279,19 @@
         <v>-59619.77853108999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4002</v>
+      </c>
+      <c r="J254" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9009,8 +9323,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9042,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9072,11 +9398,19 @@
         <v>-71773.02443108999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4010</v>
+      </c>
+      <c r="J257" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9105,11 +9439,19 @@
         <v>-69964.02813108999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>4006</v>
+      </c>
+      <c r="J258" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9138,11 +9480,19 @@
         <v>-74092.66303108999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>4011</v>
+      </c>
+      <c r="J259" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9171,11 +9521,19 @@
         <v>-64893.18583108999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>4008</v>
+      </c>
+      <c r="J260" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9207,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9240,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9273,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9306,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9339,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9372,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9405,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9438,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9471,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9504,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9537,8 +9955,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9570,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9603,8 +10033,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9636,8 +10072,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9669,8 +10111,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9702,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9735,8 +10189,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9768,8 +10228,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9801,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9834,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9867,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9900,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9933,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9966,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9999,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10032,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10065,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10098,8 +10618,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10131,8 +10657,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10164,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10197,8 +10735,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10230,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10263,8 +10813,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10296,8 +10852,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10329,8 +10891,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10362,8 +10930,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10395,8 +10969,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10428,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10461,8 +11047,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10494,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10527,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10560,8 +11164,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10593,8 +11203,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10626,8 +11242,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10659,8 +11281,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10692,8 +11320,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10725,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10758,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10791,8 +11437,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10824,8 +11476,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10857,8 +11515,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10890,8 +11554,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10923,8 +11593,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10956,8 +11632,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10989,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11022,8 +11710,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11055,8 +11749,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11088,8 +11788,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11121,8 +11827,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11154,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11187,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11220,8 +11944,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11253,8 +11983,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11286,8 +12022,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11319,8 +12061,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11352,8 +12100,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11385,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11418,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11451,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11484,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11517,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11550,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11583,8 +12373,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11616,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11649,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11682,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11715,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11748,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11781,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11814,8 +12646,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11847,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11880,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11913,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11946,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11979,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12012,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12045,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12078,8 +12958,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12111,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12144,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12177,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12210,8 +13114,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12243,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12276,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12309,8 +13231,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12342,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12375,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12408,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12441,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12474,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12507,8 +13465,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12540,8 +13504,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12573,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12606,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12639,8 +13621,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12672,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12705,8 +13699,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12738,8 +13738,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12771,8 +13777,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12804,8 +13816,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12837,8 +13855,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12870,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12903,8 +13933,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12936,8 +13972,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12969,8 +14011,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13002,8 +14050,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13035,8 +14089,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13068,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13101,8 +14167,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13134,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13167,8 +14245,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13200,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13233,8 +14323,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13266,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13299,8 +14401,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13332,8 +14440,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13365,8 +14479,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13398,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13431,8 +14557,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13464,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13497,8 +14635,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13530,8 +14674,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13563,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13596,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13629,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13662,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13695,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13728,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13761,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13794,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13827,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13860,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13893,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13926,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13959,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13992,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14025,8 +15259,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14058,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14091,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14124,8 +15376,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14157,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14190,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14223,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14256,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14289,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14322,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14355,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14388,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14421,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14454,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14487,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14520,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14553,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14586,8 +15922,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14619,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14652,8 +16000,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14685,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14718,8 +16078,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14751,8 +16117,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14784,8 +16156,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14817,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14850,8 +16234,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14883,8 +16273,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14916,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14949,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14982,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15015,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15048,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15081,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15114,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15147,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15180,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15213,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15246,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15279,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15312,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15345,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15378,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15411,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15444,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15477,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15510,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15543,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15576,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15609,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15642,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15675,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15708,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15741,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15774,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15807,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15840,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15873,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15906,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15939,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15972,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16005,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16038,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16071,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16104,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16137,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16203,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16236,8 +17872,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16269,8 +17911,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16302,8 +17950,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16335,8 +17989,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16368,8 +18028,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16401,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16434,8 +18106,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16467,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16500,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16533,8 +18223,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16566,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16599,8 +18301,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16632,8 +18340,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16665,8 +18379,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16698,8 +18418,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16731,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16764,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16797,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16830,8 +18574,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16863,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16896,8 +18652,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16929,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16962,8 +18730,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16995,8 +18769,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17028,8 +18808,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17061,8 +18847,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17094,8 +18886,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17127,8 +18925,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17160,8 +18964,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17193,8 +19003,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17226,8 +19042,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17259,8 +19081,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17292,8 +19120,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17325,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17358,8 +19198,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17391,8 +19237,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17424,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17457,8 +19315,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17490,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17523,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17556,8 +19432,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17589,8 +19471,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17622,8 +19510,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17655,8 +19549,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17688,8 +19588,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17721,8 +19627,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17754,8 +19666,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17787,8 +19705,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17820,8 +19744,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17853,8 +19783,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17886,8 +19822,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17919,8 +19861,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17952,8 +19900,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17985,8 +19939,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18018,8 +19978,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18051,8 +20017,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18084,8 +20056,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18117,8 +20095,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18150,8 +20134,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18183,8 +20173,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18216,8 +20212,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18249,8 +20251,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18282,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18315,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18348,8 +20368,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18381,8 +20407,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18414,8 +20446,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18447,8 +20485,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18480,8 +20524,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18513,8 +20563,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18546,8 +20602,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18579,8 +20641,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18612,8 +20680,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18645,8 +20719,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18678,8 +20758,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18711,8 +20797,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18744,8 +20836,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18777,8 +20875,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18810,8 +20914,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18843,8 +20953,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18876,8 +20992,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18909,8 +21031,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18942,8 +21070,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18975,8 +21109,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19008,8 +21148,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19041,8 +21187,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19074,8 +21226,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19107,8 +21265,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19140,8 +21304,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19173,8 +21343,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19206,8 +21382,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19239,8 +21421,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19272,8 +21460,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19305,8 +21499,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19338,8 +21538,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19371,8 +21577,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19404,8 +21616,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19437,8 +21655,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19470,8 +21694,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19503,8 +21733,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19536,8 +21772,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19569,8 +21811,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19602,8 +21850,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19635,8 +21889,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19668,8 +21928,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19701,8 +21967,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19734,8 +22006,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19767,8 +22045,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19800,8 +22084,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19833,8 +22123,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19866,8 +22162,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19899,8 +22201,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19932,8 +22240,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19965,8 +22279,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19998,8 +22318,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20031,8 +22357,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20064,8 +22396,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20097,8 +22435,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20130,8 +22474,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20163,8 +22513,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20196,8 +22552,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20229,8 +22591,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20262,8 +22630,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20295,8 +22669,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20328,8 +22708,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20361,8 +22747,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20394,8 +22786,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20427,8 +22825,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20460,8 +22864,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20493,8 +22903,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20526,8 +22942,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20559,8 +22981,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20592,8 +23020,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20625,8 +23059,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20658,8 +23098,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20691,8 +23137,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20724,8 +23176,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20757,8 +23215,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20790,8 +23254,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20823,8 +23293,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20856,8 +23332,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20889,8 +23371,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20922,8 +23410,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20955,8 +23449,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20988,8 +23488,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21021,8 +23527,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21054,8 +23566,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21087,8 +23605,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21120,8 +23644,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21153,8 +23683,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21186,8 +23722,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21219,8 +23761,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21252,8 +23800,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21285,8 +23839,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21318,8 +23878,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21351,8 +23917,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21384,8 +23956,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21417,8 +23995,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21450,8 +24034,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21483,8 +24073,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21516,8 +24112,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21549,8 +24151,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21582,8 +24190,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21615,8 +24229,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21645,13 +24265,19 @@
         <v>1658575.64987148</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L638" t="n">
-        <v>1</v>
+        <v>1.025090270812437</v>
       </c>
       <c r="M638" t="inlineStr"/>
     </row>
@@ -21678,7 +24304,7 @@
         <v>1660569.74436055</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21711,7 +24337,7 @@
         <v>1659350.16666055</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21744,7 +24370,7 @@
         <v>1655184.73546055</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21777,7 +24403,7 @@
         <v>1655527.10426055</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21810,7 +24436,7 @@
         <v>1655528.30421184</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21843,7 +24469,7 @@
         <v>1654816.15671184</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21876,7 +24502,7 @@
         <v>1654781.09011184</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21909,7 +24535,7 @@
         <v>1654589.09011184</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21942,7 +24568,7 @@
         <v>1654747.09191184</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21975,7 +24601,7 @@
         <v>1654833.05831184</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22008,7 +24634,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22041,7 +24667,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22074,7 +24700,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22107,7 +24733,7 @@
         <v>1654706.52551184</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22140,7 +24766,7 @@
         <v>1653200.49191184</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22173,7 +24799,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22305,7 +24931,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22338,7 +24964,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22371,7 +24997,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22404,7 +25030,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22437,7 +25063,7 @@
         <v>1648004.70091184</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22470,7 +25096,7 @@
         <v>1639257.05991184</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22701,7 +25327,7 @@
         <v>1650382.13471184</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22734,7 +25360,7 @@
         <v>1641591.41561184</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22767,7 +25393,7 @@
         <v>1641437.25371184</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22800,7 +25426,7 @@
         <v>1641889.02861184</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22833,7 +25459,7 @@
         <v>1640190.12831184</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22866,7 +25492,7 @@
         <v>1640190.12831184</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23031,7 +25657,7 @@
         <v>1639435.33601184</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23394,7 +26020,7 @@
         <v>1639895.85920426</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23427,7 +26053,7 @@
         <v>1638596.50310426</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23691,7 +26317,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23724,7 +26350,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23757,7 +26383,7 @@
         <v>1644518.90421874</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24054,7 +26680,7 @@
         <v>1652821.65187878</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24087,7 +26713,7 @@
         <v>1655381.80617878</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24615,7 +27241,7 @@
         <v>1652178.40917878</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24648,7 +27274,7 @@
         <v>1652028.40917878</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24747,7 +27373,7 @@
         <v>1651339.07557878</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24879,7 +27505,7 @@
         <v>1653604.59284623</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24912,7 +27538,7 @@
         <v>1654071.95954623</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24945,7 +27571,7 @@
         <v>1650739.20144623</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24978,7 +27604,7 @@
         <v>1650768.27074623</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25011,7 +27637,7 @@
         <v>1651619.87634623</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25044,7 +27670,7 @@
         <v>1650081.26724623</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25077,7 +27703,7 @@
         <v>1650053.94394623</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25110,7 +27736,7 @@
         <v>1650704.04454623</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25143,7 +27769,7 @@
         <v>1651496.70783221</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25176,7 +27802,7 @@
         <v>1651053.344932209</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25209,7 +27835,7 @@
         <v>1651056.074932209</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25242,7 +27868,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25275,7 +27901,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25308,7 +27934,7 @@
         <v>1651040.265232209</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25341,7 +27967,7 @@
         <v>1648945.392332209</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25374,7 +28000,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25407,7 +28033,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25440,7 +28066,7 @@
         <v>1648943.399832209</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25473,7 +28099,7 @@
         <v>1650680.403732209</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25506,7 +28132,7 @@
         <v>1653796.193632209</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25539,7 +28165,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25572,7 +28198,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25605,7 +28231,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25638,7 +28264,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25671,7 +28297,7 @@
         <v>1651637.369832209</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25704,7 +28330,7 @@
         <v>1654868.191232209</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25737,7 +28363,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25770,7 +28396,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25803,7 +28429,7 @@
         <v>1654288.057332209</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25836,7 +28462,7 @@
         <v>1654302.913917909</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25869,7 +28495,7 @@
         <v>1655033.266774749</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25902,7 +28528,7 @@
         <v>1654697.825874749</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25935,7 +28561,7 @@
         <v>1649307.840074749</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25968,7 +28594,7 @@
         <v>1647844.841574749</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26001,7 +28627,7 @@
         <v>1648508.544174749</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26034,7 +28660,7 @@
         <v>1647997.845974749</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26067,7 +28693,7 @@
         <v>1647685.414674749</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26100,7 +28726,7 @@
         <v>1649941.916574749</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26133,7 +28759,7 @@
         <v>1642823.895774749</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26166,7 +28792,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26199,7 +28825,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26232,7 +28858,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26265,7 +28891,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26298,7 +28924,7 @@
         <v>1639528.49688833</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26331,7 +28957,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26364,7 +28990,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26397,7 +29023,7 @@
         <v>1650172.41448833</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26430,7 +29056,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26463,7 +29089,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26496,7 +29122,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26529,7 +29155,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26562,7 +29188,7 @@
         <v>1648451.88338833</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26595,7 +29221,7 @@
         <v>1646451.88338833</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26628,7 +29254,7 @@
         <v>1646159.19368833</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26661,7 +29287,7 @@
         <v>1647022.702088329</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26694,7 +29320,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26727,7 +29353,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26760,7 +29386,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26793,7 +29419,7 @@
         <v>1645453.165788329</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26826,7 +29452,7 @@
         <v>1645443.165788329</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26859,7 +29485,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26892,7 +29518,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26925,7 +29551,7 @@
         <v>1648380.74838833</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26958,7 +29584,7 @@
         <v>1649562.35428833</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26991,7 +29617,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27024,7 +29650,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27057,7 +29683,7 @@
         <v>1649767.36868833</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27090,7 +29716,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27123,7 +29749,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27156,7 +29782,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27189,7 +29815,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27222,7 +29848,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27255,7 +29881,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27288,7 +29914,7 @@
         <v>1646020.653788329</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27321,7 +29947,7 @@
         <v>1643885.530688329</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27354,7 +29980,7 @@
         <v>1643685.530688329</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27387,7 +30013,7 @@
         <v>1644373.249388329</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27420,7 +30046,7 @@
         <v>1641886.249388329</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27453,7 +30079,7 @@
         <v>1643772.666888329</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27486,7 +30112,7 @@
         <v>1643231.667688329</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27519,7 +30145,7 @@
         <v>1643225.057388329</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27552,7 +30178,7 @@
         <v>1640563.065488329</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27585,7 +30211,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27618,7 +30244,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27651,7 +30277,7 @@
         <v>1650185.600588329</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27684,7 +30310,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27717,7 +30343,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27750,7 +30376,7 @@
         <v>1648233.822588329</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27783,7 +30409,7 @@
         <v>1648846.231088329</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27816,7 +30442,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27849,7 +30475,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27882,7 +30508,7 @@
         <v>1650928.194688329</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27915,7 +30541,7 @@
         <v>1655687.353088329</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27948,7 +30574,7 @@
         <v>1655916.253088329</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27981,7 +30607,7 @@
         <v>1655468.900888329</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28014,7 +30640,7 @@
         <v>1652992.633788329</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28047,7 +30673,7 @@
         <v>1652982.003088329</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28080,7 +30706,7 @@
         <v>1651934.375088329</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28113,7 +30739,7 @@
         <v>1652134.375088329</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28146,7 +30772,7 @@
         <v>1651207.570988329</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28179,7 +30805,7 @@
         <v>1649789.444288329</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28212,7 +30838,7 @@
         <v>1649959.247288329</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28278,7 +30904,7 @@
         <v>1648273.991488329</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30522,7 +33148,7 @@
         <v>1619345.083488289</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30555,7 +33181,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30621,7 +33247,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30687,7 +33313,7 @@
         <v>1618955.089288289</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30720,7 +33346,7 @@
         <v>1617694.089288289</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30753,7 +33379,7 @@
         <v>1617697.66448829</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33261,7 +35887,7 @@
         <v>1608857.00919813</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33327,7 +35953,7 @@
         <v>1608338.78959813</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33360,7 +35986,7 @@
         <v>1608338.78959813</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33393,7 +36019,7 @@
         <v>1606515.45099813</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33525,7 +36151,7 @@
         <v>1607801.58619813</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33591,7 +36217,7 @@
         <v>1606782.41139813</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33624,7 +36250,7 @@
         <v>1606426.86949813</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33657,7 +36283,7 @@
         <v>1606426.86949813</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37650,7 +40276,7 @@
         <v>1648816.934353871</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37683,7 +40309,7 @@
         <v>1646984.505562961</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37716,7 +40342,7 @@
         <v>1648242.147462961</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37749,7 +40375,7 @@
         <v>1646698.49716296</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37782,7 +40408,7 @@
         <v>1650563.35066296</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37815,7 +40441,7 @@
         <v>1645963.97006296</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37848,7 +40474,7 @@
         <v>1651256.75506296</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37881,7 +40507,7 @@
         <v>1650268.69367568</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -37914,7 +40540,7 @@
         <v>1648066.74277568</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -37947,7 +40573,7 @@
         <v>1656206.64397568</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -37980,7 +40606,7 @@
         <v>1656800.76057568</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -38013,7 +40639,7 @@
         <v>1652579.03867568</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -38046,7 +40672,7 @@
         <v>1653062.89377568</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -38079,7 +40705,7 @@
         <v>1650486.20647568</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38112,7 +40738,7 @@
         <v>1658831.88387568</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -38145,7 +40771,7 @@
         <v>1666636.62220156</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -38178,7 +40804,7 @@
         <v>1666636.62220156</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38211,7 +40837,7 @@
         <v>1671778.76520156</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38244,7 +40870,7 @@
         <v>1672939.11730156</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38277,7 +40903,7 @@
         <v>1672358.08550156</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38376,7 +41002,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38409,7 +41035,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -38442,7 +41068,7 @@
         <v>1669928.42330156</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -38739,7 +41365,7 @@
         <v>1688346.17230156</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -38772,7 +41398,7 @@
         <v>1686694.13250156</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -38805,7 +41431,7 @@
         <v>1686694.13250156</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -38838,7 +41464,7 @@
         <v>1685619.26400156</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -38871,7 +41497,7 @@
         <v>1680142.67082991</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -38904,7 +41530,7 @@
         <v>1679697.26172991</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -38937,7 +41563,7 @@
         <v>1680243.845129909</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -38970,7 +41596,7 @@
         <v>1681241.10122991</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
